--- a/biology/Botanique/Morningside_Park_(Manhattan)/Morningside_Park_(Manhattan).xlsx
+++ b/biology/Botanique/Morningside_Park_(Manhattan)/Morningside_Park_(Manhattan).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Morningside Park est un parc public de 30 acres (12 hectares) dans l'Upper Manhattan, à New York. Le parc est délimité par la 110e rue au sud, la 123e rue au nord, l'avenue Morningside à l'est et la promenade Morningside à l'ouest ; il forme la frontière entre les quartiers de Harlem et de Morningside Heights respectivement à l'est et à l'ouest. Une grande partie du parc est adjacente à l'université Columbia, située en limite ouest.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Morningside est géré par le département des parcs et des loisirs de la ville de New York. Sa géographie naturelle contient une falaise de roche schisteuse de Manhattan qui sépare le terrain élevé de Morningside Heights et le terrain de Harlem en contrebas. De plus, plusieurs affleurements rocheux, un étang ornemental artificiel et une cascade sont situés dans le parc. Ce dernier contient également trois sculptures, ainsi que plusieurs terrains de sport, des terrains de jeux et un arboretum.
 La région près de Morningside Park était à l'origine connue sous le nom de Muscota par les Amérindiens Lenapes. L'aménagement du parc a été proposé pour la première fois par les commissaires de Central Park en 1867, et la ville a chargé les concepteurs de Central Park, Frederick Law Olmsted et Calvert Vaux, d'en réaliser un projet en 1873. Bien que Jacob Wrey Mould ait été sollicité pour concevoir de nouveaux plans en 1880, peu des progrès ont été accomplis jusqu'à ce qu'Olmsted et Vaux soient invités à modifier les plans après la mort de Mould en 1886. 
